--- a/va_facility_data_2025-02-20/Ioannis A. Lougaris Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Ioannis%20A.%20Lougaris%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ioannis A. Lougaris Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Ioannis%20A.%20Lougaris%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rc8a9acb15c35486eb36e2a050df668ee"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0fc5f83b94b946358177ebd7c50a0ef9"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R8dd1510a43d04e3b963e04f7df07db95"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rb11623c81fdc41e9abe1a6191730d8b2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R6ecf1ad4f04341ef9198e8d8fd791957"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R1cf16ecfcc764e40b20ea6e51a83658d"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rddae635fd0084d2685c9fcf2498c4f6a"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Ra4fbe3f4e94d4228a21a71d67dc396b0"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf292ad423f7b4d1ca070f1e83a304874"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R0024c020553d4f3a89bf9fe71ad482e3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R3dda7192f2dc40ca897410d53871eec5"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rdbd8fda28ed24cc5b7ebfb13cc7ae444"/>
   </x:sheets>
 </x:workbook>
 </file>
